--- a/Data/REFERENCE_Post_Flight_Datasheet.xlsx
+++ b/Data/REFERENCE_Post_Flight_Datasheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Documents/GitHub/FlightDynamicsAssignment/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Documents/GitHub/FlightDynamicsAssignment/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3421EF5-2184-F946-8FDA-88FC9689E007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B3EE4C-0D92-5845-8A0F-782D4D0C49B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30240" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="113">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -258,9 +258,6 @@
     <t>5.5</t>
   </si>
   <si>
-    <t>37:19</t>
-  </si>
-  <si>
     <t>39:11</t>
   </si>
   <si>
@@ -352,6 +349,30 @@
   </si>
   <si>
     <t>1:05:20</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -902,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="169" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -955,7 +976,9 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="H8" s="2">
         <v>95</v>
       </c>
@@ -964,7 +987,9 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="H9" s="2">
         <v>92</v>
       </c>
@@ -973,7 +998,9 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="H10" s="2">
         <v>74</v>
       </c>
@@ -982,7 +1009,9 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="H11" s="2">
         <v>66</v>
       </c>
@@ -991,7 +1020,9 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="H12" s="2">
         <v>61</v>
       </c>
@@ -1000,7 +1031,9 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="H13" s="2">
         <v>75</v>
       </c>
@@ -1009,7 +1042,9 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="H14" s="2">
         <v>78</v>
       </c>
@@ -1018,7 +1053,9 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="H15" s="2">
         <v>86</v>
       </c>
@@ -1027,7 +1064,9 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="H16" s="2">
         <v>68</v>
       </c>
@@ -1119,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
@@ -1149,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
@@ -1179,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
@@ -1209,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
@@ -1239,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
@@ -1269,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
@@ -1389,7 +1428,9 @@
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1403,7 +1444,9 @@
       <c r="A45">
         <v>2</v>
       </c>
-      <c r="B45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1417,7 +1460,9 @@
       <c r="A46">
         <v>3</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1431,7 +1476,9 @@
       <c r="A47">
         <v>4</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1445,7 +1492,9 @@
       <c r="A48">
         <v>5</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1459,7 +1508,9 @@
       <c r="A49">
         <v>6</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1473,7 +1524,9 @@
       <c r="A50">
         <v>7</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1584,9 +1637,7 @@
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B59" s="5"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2">
         <v>6060</v>
@@ -1624,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2">
@@ -1634,7 +1685,7 @@
         <v>150</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G60" s="2">
         <v>-0.4</v>
@@ -1655,7 +1706,7 @@
         <v>694</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -1663,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2">
@@ -1673,7 +1724,7 @@
         <v>140</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G61" s="2">
         <v>-0.9</v>
@@ -1694,7 +1745,7 @@
         <v>730</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -1702,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2">
@@ -1712,7 +1763,7 @@
         <v>130</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G62" s="2">
         <v>-1.5</v>
@@ -1733,7 +1784,7 @@
         <v>755</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -1741,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2">
@@ -1751,7 +1802,7 @@
         <v>173</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G63" s="2">
         <v>0.4</v>
@@ -1772,7 +1823,7 @@
         <v>798</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -1780,7 +1831,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2">
@@ -1790,7 +1841,7 @@
         <v>179</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G64" s="2">
         <v>0.6</v>
@@ -1811,7 +1862,7 @@
         <v>825</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -1819,7 +1870,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2">
@@ -1829,7 +1880,7 @@
         <v>192</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -1850,7 +1901,7 @@
         <v>846</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -1967,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2">
@@ -1998,7 +2049,7 @@
         <v>881</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -2006,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2">
@@ -2037,7 +2088,7 @@
         <v>910</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -2077,19 +2128,19 @@
         <v>54</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E83" t="s">
         <v>55</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H83" t="s">
         <v>56</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -2097,19 +2148,19 @@
         <v>57</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E84" t="s">
         <v>58</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H84" t="s">
         <v>59</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Data/REFERENCE_Post_Flight_Datasheet.xlsx
+++ b/Data/REFERENCE_Post_Flight_Datasheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Documents/GitHub/FlightDynamicsAssignment/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cysch\Desktop\TU Delft\Year 3\SVV\FlightDynamicsAssignment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B3EE4C-0D92-5845-8A0F-782D4D0C49B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4064FBB6-C9DC-493E-8711-3611E4283490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30240" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -923,18 +923,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="169" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="169" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -946,7 +946,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -958,13 +958,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -972,7 +972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -983,7 +983,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -994,7 +994,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1071,20 +1071,20 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1347,23 +1347,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1472,7 +1472,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1504,7 +1504,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -1536,17 +1536,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>42</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -1904,23 +1904,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>49</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>42</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -2091,17 +2091,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>53</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>42</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>54</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>57</v>
       </c>
@@ -2246,7 +2246,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="99" firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="10" max="1048575" man="1"/>
   </colBreaks>

--- a/Data/REFERENCE_Post_Flight_Datasheet.xlsx
+++ b/Data/REFERENCE_Post_Flight_Datasheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cysch\Desktop\TU Delft\Year 3\SVV\FlightDynamicsAssignment\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\MSc_Air_Traffic_Operations\3rd_quarter\SVV-FD TA\FD-Simulation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4064FBB6-C9DC-493E-8711-3611E4283490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704D9DF0-9931-48B8-AC4F-629C6FF71527}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -258,6 +258,9 @@
     <t>5.5</t>
   </si>
   <si>
+    <t>37:19</t>
+  </si>
+  <si>
     <t>39:11</t>
   </si>
   <si>
@@ -349,30 +352,6 @@
   </si>
   <si>
     <t>1:05:20</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>fa</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>name1</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -923,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="169" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,9 +955,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="H8" s="2">
         <v>95</v>
       </c>
@@ -987,9 +964,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="H9" s="2">
         <v>92</v>
       </c>
@@ -998,9 +973,7 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="H10" s="2">
         <v>74</v>
       </c>
@@ -1009,9 +982,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="H11" s="2">
         <v>66</v>
       </c>
@@ -1020,9 +991,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="H12" s="2">
         <v>61</v>
       </c>
@@ -1031,9 +1000,7 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="H13" s="2">
         <v>75</v>
       </c>
@@ -1042,9 +1009,7 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="H14" s="2">
         <v>78</v>
       </c>
@@ -1053,9 +1018,7 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="H15" s="2">
         <v>86</v>
       </c>
@@ -1064,9 +1027,7 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="H16" s="2">
         <v>68</v>
       </c>
@@ -1076,7 +1037,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="2">
-        <v>2438</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1158,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
@@ -1188,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
@@ -1218,7 +1179,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
@@ -1248,7 +1209,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
@@ -1278,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
@@ -1308,7 +1269,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
@@ -1428,9 +1389,7 @@
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B44" s="4"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1444,9 +1403,7 @@
       <c r="A45">
         <v>2</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="B45" s="4"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1460,9 +1417,7 @@
       <c r="A46">
         <v>3</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="B46" s="4"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1476,9 +1431,7 @@
       <c r="A47">
         <v>4</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="B47" s="4"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1492,9 +1445,7 @@
       <c r="A48">
         <v>5</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="B48" s="4"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1508,9 +1459,7 @@
       <c r="A49">
         <v>6</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="B49" s="4"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1524,9 +1473,7 @@
       <c r="A50">
         <v>7</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B50" s="4"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1637,7 +1584,9 @@
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59" s="5"/>
+      <c r="B59" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2">
         <v>6060</v>
@@ -1675,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2">
@@ -1685,7 +1634,7 @@
         <v>150</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G60" s="2">
         <v>-0.4</v>
@@ -1706,7 +1655,7 @@
         <v>694</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -1714,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2">
@@ -1724,7 +1673,7 @@
         <v>140</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G61" s="2">
         <v>-0.9</v>
@@ -1745,7 +1694,7 @@
         <v>730</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -1753,7 +1702,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2">
@@ -1763,7 +1712,7 @@
         <v>130</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G62" s="2">
         <v>-1.5</v>
@@ -1784,7 +1733,7 @@
         <v>755</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -1792,7 +1741,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2">
@@ -1802,7 +1751,7 @@
         <v>173</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G63" s="2">
         <v>0.4</v>
@@ -1823,7 +1772,7 @@
         <v>798</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -1831,7 +1780,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2">
@@ -1841,7 +1790,7 @@
         <v>179</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G64" s="2">
         <v>0.6</v>
@@ -1862,7 +1811,7 @@
         <v>825</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -1870,7 +1819,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2">
@@ -1880,7 +1829,7 @@
         <v>192</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -1901,7 +1850,7 @@
         <v>846</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -2018,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2">
@@ -2049,7 +1998,7 @@
         <v>881</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -2057,7 +2006,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2">
@@ -2088,7 +2037,7 @@
         <v>910</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -2128,19 +2077,19 @@
         <v>54</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E83" t="s">
         <v>55</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H83" t="s">
         <v>56</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -2148,19 +2097,19 @@
         <v>57</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E84" t="s">
         <v>58</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H84" t="s">
         <v>59</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2246,7 +2195,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="99" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="10" max="1048575" man="1"/>
   </colBreaks>
